--- a/nepse_simple.xlsx
+++ b/nepse_simple.xlsx
@@ -436,6 +436,18 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="3" customWidth="1" min="1" max="1"/>
+    <col width="55" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="9" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="inlineStr">

--- a/nepse_simple.xlsx
+++ b/nepse_simple.xlsx
@@ -436,18 +436,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="3" customWidth="1" min="1" max="1"/>
-    <col width="55" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="13" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
